--- a/excel/t_agent_rule_Server..xlsx
+++ b/excel/t_agent_rule_Server..xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="221">
   <si>
     <t>经纪人表</t>
   </si>
@@ -137,7 +137,7 @@
     <t>2021/3/14 12:00:00</t>
   </si>
   <si>
-    <t>agent_name</t>
+    <t>agent_name[I18N]</t>
   </si>
   <si>
     <t>currency_type</t>
@@ -257,7 +257,7 @@
     <t>[10002,10502,11002,11502,12002]</t>
   </si>
   <si>
-    <t>Agent in Asia and Oceania</t>
+    <t>Agent In Asia And Oceania</t>
   </si>
   <si>
     <t>{"continen":[1],"filter":[{"rarity":1,"rating_level":[1,2,3]},{"rarity":2,"rating_level":[1,2,3]},{"rarity":3,"rating_level":[1,2,3]},{"rarity":4,"rating_level":[1,2,3]}]}</t>
@@ -320,7 +320,7 @@
     <t>[10011,10511,11011,11511,12011]</t>
   </si>
   <si>
-    <t>Portuguese Super  Agent</t>
+    <t>Portuguese Super Agent</t>
   </si>
   <si>
     <t>{"league":[11],"filter":[{"rarity":1,"rating_level":[1,2,3]},{"rarity":2,"rating_level":[1,2,3]},{"rarity":3,"rating_level":[1,2,3]},{"rarity":4,"rating_level":[1,2,3]}]}</t>
@@ -329,7 +329,7 @@
     <t>[10012,10512,11012,11512,12012]</t>
   </si>
   <si>
-    <t>chinese super league Agent</t>
+    <t>Chinese Super League Agent</t>
   </si>
   <si>
     <t>{"league":[12],"filter":[{"rarity":1,"rating_level":[1,2,3]},{"rarity":2,"rating_level":[1,2,3]},{"rarity":3,"rating_level":[1,2,3]},{"rarity":4,"rating_level":[1,2,3]}]}</t>
@@ -377,61 +377,61 @@
     <t>{}</t>
   </si>
   <si>
-    <t>Forbidden area fox Agent</t>
+    <t>Forbidden Area Fox Agent</t>
   </si>
   <si>
     <t>Power Striker Agent</t>
   </si>
   <si>
-    <t>Sharp inside forward   Agent</t>
+    <t>Sharp Inside Forward Agent</t>
   </si>
   <si>
-    <t>Side Knife  Agent</t>
+    <t>Side Knife Agent</t>
   </si>
   <si>
-    <t>Classical midfielder  Agent</t>
+    <t>Classical Midfielder Agent</t>
   </si>
   <si>
-    <t>Shadow Striker  Agent</t>
+    <t>Shadow Striker Agent</t>
   </si>
   <si>
-    <t>Midfield metronome  Agent</t>
+    <t>Midfield Metronome Agent</t>
   </si>
   <si>
-    <t>Defensive midfielder  Agent</t>
+    <t>Defensive Midfielder Agent</t>
   </si>
   <si>
-    <t>Offensive engine  Agent</t>
+    <t>Offensive Engine Agent</t>
   </si>
   <si>
-    <t>Offensive and defensive hub  Agent</t>
+    <t>Offensive And Defensive Hub Agent</t>
   </si>
   <si>
-    <t>Fast sideways  Agent</t>
+    <t>Fast Sideways Agent</t>
   </si>
   <si>
-    <t>Sidewalk barrier  Agent</t>
+    <t>Sidewalk Barrier Agent</t>
   </si>
   <si>
-    <t>Master Interceptor  Agent</t>
+    <t>Master Interceptor Agent</t>
   </si>
   <si>
-    <t>Muscle wall  Agent</t>
+    <t>Muscle Wall Agent</t>
   </si>
   <si>
-    <t>Offensive Back  Agent</t>
+    <t>Offensive Back Agent</t>
   </si>
   <si>
-    <t>Side road iron gate  Agent</t>
+    <t>Side Road Iron Gate Agent</t>
   </si>
   <si>
-    <t>Stubborn goalkeeper Agent</t>
+    <t>Stubborn Goalkeeper Agent</t>
   </si>
   <si>
-    <t>Attacking goalkeeper agent</t>
+    <t>Attacking Goalkeeper Agent</t>
   </si>
   <si>
-    <t>Agents for players 25 and under</t>
+    <t>Agent For Players 25 And Under</t>
   </si>
   <si>
     <t>{"age":[{"&lt;=":25}],"filter":[{"rarity":1,"rating_level":[1,2,3]},{"rarity":2,"rating_level":[1,2,3]},{"rarity":3,"rating_level":[1,2,3]},{"rarity":4,"rating_level":[1,2,3]}]}</t>
@@ -440,7 +440,7 @@
     <t>[10086,10586,11086,11586,12086]</t>
   </si>
   <si>
-    <t>26-29 years old player agent</t>
+    <t>26-29 Years Old Player Agent</t>
   </si>
   <si>
     <t>{"age":[{"&gt;=":26},{"&lt;=":29}],"filter":[{"rarity":1,"rating_level":[1,2,3]},{"rarity":2,"rating_level":[1,2,3]},{"rarity":3,"rating_level":[1,2,3]},{"rarity":4,"rating_level":[1,2,3]}]}</t>
@@ -449,7 +449,7 @@
     <t>[10087,10587,11087,11587,12087]</t>
   </si>
   <si>
-    <t>Agents for players over 30</t>
+    <t>Agent For Players Over 30</t>
   </si>
   <si>
     <t>{"age":[{"&gt;=":30}],"filter":[{"rarity":1,"rating_level":[1,2,3]},{"rarity":2,"rating_level":[1,2,3]},{"rarity":3,"rating_level":[1,2,3]},{"rarity":4,"rating_level":[1,2,3]}]}</t>
@@ -458,7 +458,7 @@
     <t>[10088,10588,11088,11588,12088]</t>
   </si>
   <si>
-    <t>Agents for players under 179cm</t>
+    <t>Agent For Players Under 179Cm</t>
   </si>
   <si>
     <t>{"height":[{"&lt;=":179}],"filter":[{"rarity":1,"rating_level":[1,2,3]},{"rarity":2,"rating_level":[1,2,3]},{"rarity":3,"rating_level":[1,2,3]},{"rarity":4,"rating_level":[1,2,3]}]}</t>
@@ -467,7 +467,7 @@
     <t>[10089,10589,11089,11589,12089]</t>
   </si>
   <si>
-    <t>180-185cm player agent</t>
+    <t>180-185Cm Player Agent</t>
   </si>
   <si>
     <t>{"height":[{"&gt;=":180},{"&lt;=":185}],"filter":[{"rarity":1,"rating_level":[1,2,3]},{"rarity":2,"rating_level":[1,2,3]},{"rarity":3,"rating_level":[1,2,3]},{"rarity":4,"rating_level":[1,2,3]}]}</t>
@@ -476,7 +476,7 @@
     <t>[10090,10590,11090,11590,12090]</t>
   </si>
   <si>
-    <t>Agents for players over 186cm</t>
+    <t>Agent For Players Over 186Cm</t>
   </si>
   <si>
     <t>{"height":[{"&gt;=":186}],"filter":[{"rarity":1,"rating_level":[1,2,3]},{"rarity":2,"rating_level":[1,2,3]},{"rarity":3,"rating_level":[1,2,3]},{"rarity":4,"rating_level":[1,2,3]}]}</t>
@@ -491,7 +491,7 @@
     <t>组合</t>
   </si>
   <si>
-    <t>National and regional theme brokers</t>
+    <t>National And Regional Theme Agent</t>
   </si>
   <si>
     <t>[1001,1002,1003,1004]</t>
@@ -503,19 +503,19 @@
     <t>[1005,1006,1007,1008,1010,1011]</t>
   </si>
   <si>
-    <t>Player location theme agent</t>
+    <t>Player Location Theme Agent</t>
   </si>
   <si>
     <t>[1013,1014,1015,1016]</t>
   </si>
   <si>
-    <t>Player age theme agent</t>
+    <t>Player Age Theme Agent</t>
   </si>
   <si>
     <t>[1036,1037,1038]</t>
   </si>
   <si>
-    <t>Player height theme agent</t>
+    <t>Player Height Theme Agent</t>
   </si>
   <si>
     <t>[1039,1040,1041]</t>
@@ -685,20 +685,17 @@
   <si>
     <t>50</t>
   </si>
-  <si>
-    <t>9</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -726,14 +723,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -741,7 +730,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -754,30 +751,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -798,25 +790,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -832,37 +829,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -1192,148 +1189,148 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
   </cellStyleXfs>
@@ -1851,7 +1848,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3150,14 +3147,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <dimension ref="A1:XFD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="H22">
-      <selection pane="topLeft" activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="5" customWidth="1"/>
     <col min="4" max="5" width="22" style="5" customWidth="1"/>
     <col min="6" max="6" width="23.375" style="5" customWidth="1"/>
@@ -21344,7 +21341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="33">
+    <row r="42" spans="1:14" ht="16.5">
       <c r="A42" s="2">
         <v>1039</v>
       </c>
@@ -21487,8 +21484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C38" sqref="C38"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -21597,7 +21594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <dimension ref="A1:XFD11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="D4" sqref="D4:D11"/>
     </sheetView>
   </sheetViews>
@@ -54822,10 +54819,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E4" sqref="E4:E13"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -55128,134 +55125,6 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5">
-      <c r="A10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10373</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5">
-      <c r="A11" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="4">
-        <v>10374</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5">
-      <c r="A12" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10375</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="4">
-        <v>10376</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
